--- a/medicine/Pharmacie/Le_Pharmacien_de_garde/Le_Pharmacien_de_garde.xlsx
+++ b/medicine/Pharmacie/Le_Pharmacien_de_garde/Le_Pharmacien_de_garde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pharmacien de garde est un film policier français de Jean Veber sorti en 2003. Il a reçu des critiques décevantes à sa sortie tant de la part de la presse que de celle du public[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pharmacien de garde est un film policier français de Jean Veber sorti en 2003. Il a reçu des critiques décevantes à sa sortie tant de la part de la presse que de celle du public.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un policier trop tendre mène l'enquête sur une série de meurtres étranges perpétrés par un pharmacien écologiste et excentrique. Les deux hommes finissent par se rencontrer et sympathisent immédiatement, sans connaitre leur véritable identité.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Pharmacien de garde
 Réalisation : Jean Veber
@@ -586,6 +602,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
